--- a/dist_ECOS.xlsx
+++ b/dist_ECOS.xlsx
@@ -375,12 +375,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -405,12 +405,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -425,12 +425,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Energy Intensive Industries</t>
+          <t>Energ. Intense</t>
         </is>
       </c>
       <c r="B4">
@@ -584,7 +584,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cultural and Creative Industries</t>
+          <t>Culture</t>
         </is>
       </c>
       <c r="B5">
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defence</t>
+          <t>Defence</t>
         </is>
       </c>
       <c r="B7">
@@ -829,7 +829,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Energy - Renewables</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="B10">
@@ -878,7 +878,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mobility - Transport - Automotive</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="B11">
@@ -1025,7 +1025,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proximity, Social Economy and Civil Security</t>
+          <t>Social Economy</t>
         </is>
       </c>
       <c r="B14">
@@ -1074,7 +1074,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TOURISM</t>
+          <t>Tourism</t>
         </is>
       </c>
       <c r="B15">
